--- a/biology/Histoire de la zoologie et de la botanique/Schnizl/Schnizl..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Schnizl/Schnizl..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adalbert Carl (Karl) Friedrich Hellwig Conrad Schnizlein est un botaniste bavarois, né le 15 avril 1814 à Feuchtwangen et mort le 24 octobre 1868 à Erlangen.
 Schnizlein est apprenti dans des pharmacies, à Ansbach et à Nördlingen. Il étudie à l’université de Munich la pharmacie et est diplômé à l’université d’Erlangen en 1836. Neuf ans plus tard, il reçoit son habilitation. À partir de 1850, il enseigne la botanique à l’université d’Erlangen et dirige le jardin botanique de la ville.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1843-1870 : Iconographia familiarum naturalium regni vegetabilis...
 1847 : Die Flora von Bayern.</t>
